--- a/00_management/06_WBSガントチャート最終版.xlsx
+++ b/00_management/06_WBSガントチャート最終版.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="633" documentId="13_ncr:1_{4C7CED62-1F83-445B-88D5-18DCA6F4B8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{894CDF6A-8C38-4EB9-A39F-863541D00982}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853637D9-4BD9-457E-85B8-A9AAFEA1A206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="90" windowWidth="19185" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復１" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,14 +94,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -118,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="72">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -409,6 +407,20 @@
   </si>
   <si>
     <t>落合、鈴木、長嶺</t>
+  </si>
+  <si>
+    <t>落合、長嶺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今村、竹田</t>
+    <rPh sb="0" eb="2">
+      <t>イマムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1438,47 +1450,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1498,60 +1585,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,12 +1630,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,9 +1648,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,46 +1660,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,14 +2283,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2293,109 +2305,109 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="107" t="s">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="99">
+      <c r="L1" s="141">
         <v>43984</v>
       </c>
-      <c r="M1" s="100"/>
-      <c r="N1" s="99">
+      <c r="M1" s="142"/>
+      <c r="N1" s="141">
         <v>43985</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="99">
+      <c r="O1" s="142"/>
+      <c r="P1" s="141">
         <v>43986</v>
       </c>
-      <c r="Q1" s="100"/>
-    </row>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="97" t="s">
+      <c r="Q1" s="142"/>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="97" t="s">
+      <c r="M2" s="140"/>
+      <c r="N2" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="97" t="s">
+      <c r="O2" s="140"/>
+      <c r="P2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="98"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="103" t="s">
+      <c r="Q2" s="140"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="101" t="s">
+      <c r="M3" s="144"/>
+      <c r="N3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="101" t="s">
+      <c r="O3" s="144"/>
+      <c r="P3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="102"/>
-    </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="106"/>
+      <c r="Q3" s="144"/>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="148"/>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
@@ -2415,16 +2427,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:18" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="133"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2463,14 +2475,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="134"/>
+    <row r="6" spans="1:18" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="126"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2478,7 +2490,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="43">
         <f>SUM(K8,K30,K48,K64,K84,K92,K106,)</f>
-        <v>20.5</v>
+        <v>25.5</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L30,L48)</f>
@@ -2486,7 +2498,7 @@
       </c>
       <c r="M6" s="29">
         <f>SUM(M8,M30,M48,M64,M84,M92,M106,)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N6" s="29">
         <f t="shared" ref="N6:Q6" si="0">SUM(N8,N30,N48,N64,N84,N92,N106,)</f>
@@ -2505,16 +2517,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="124" t="s">
+    <row r="7" spans="1:18" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="127"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2549,21 +2561,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="128"/>
+    <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="133"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
-        <f t="shared" ref="K8:Q8" si="1">SUMPRODUCT((MOD(ROW(K$9:K$24),2)=0)*K$9:K$24)</f>
+        <f t="shared" ref="K8:L8" si="1">SUMPRODUCT((MOD(ROW(K$9:K$24),2)=0)*K$9:K$24)</f>
         <v>13</v>
       </c>
       <c r="L8" s="35">
@@ -2591,22 +2603,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1">
+    <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="91" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="135"/>
+      <c r="F9" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="85"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2621,14 +2633,14 @@
       <c r="P9" s="58"/>
       <c r="Q9" s="58"/>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="94"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="136"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2643,22 +2655,22 @@
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="93"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="89" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="138"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2682,14 +2694,14 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="94"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="90"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="96"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="65" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2713,22 +2725,22 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1">
+    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="93"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="138"/>
+        <v>25</v>
+      </c>
+      <c r="G13" s="91"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2754,14 +2766,14 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="94"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="90"/>
       <c r="F14" s="90"/>
-      <c r="G14" s="96"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="65" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2787,22 +2799,22 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="1:18" ht="12" customHeight="1">
+    <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="93">
         <v>2</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="135"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="85"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2817,14 +2829,14 @@
       <c r="P15" s="58"/>
       <c r="Q15" s="58"/>
     </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1">
+    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="94"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="136"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2839,22 +2851,22 @@
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1">
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="93"/>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="72"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="89" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="138"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2878,14 +2890,14 @@
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
     </row>
-    <row r="18" spans="1:17" ht="12" customHeight="1">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90"/>
-      <c r="G18" s="96"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="65" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2909,22 +2921,22 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
     </row>
-    <row r="19" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="104"/>
+      <c r="B19" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="72"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="45" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -2948,14 +2960,14 @@
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
     </row>
-    <row r="20" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+    <row r="20" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="105"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
-      <c r="G20" s="78"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="66" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -2979,22 +2991,22 @@
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="69" t="s">
+    <row r="21" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="104"/>
+      <c r="B21" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="45" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3018,14 +3030,14 @@
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
     </row>
-    <row r="22" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+    <row r="22" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="105"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
-      <c r="G22" s="78"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="66" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3049,20 +3061,22 @@
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="69" t="s">
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="104"/>
+      <c r="B23" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="77"/>
+      <c r="F23" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="71"/>
       <c r="H23" s="45" t="str">
         <f>IF(E23="","","予定")</f>
         <v>予定</v>
@@ -3086,14 +3100,14 @@
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
     </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="105"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
-      <c r="G24" s="78"/>
+      <c r="G24" s="107"/>
       <c r="H24" s="66" t="str">
         <f>IF(E23="","","実績")</f>
         <v>実績</v>
@@ -3113,20 +3127,22 @@
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="69" t="s">
+    <row r="25" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="104"/>
+      <c r="B25" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="77"/>
+        <v>55</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="71"/>
       <c r="H25" s="45" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3150,14 +3166,14 @@
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
     </row>
-    <row r="26" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+    <row r="26" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="105"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
-      <c r="G26" s="78"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="66" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3181,20 +3197,22 @@
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
     </row>
-    <row r="27" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="69" t="s">
+    <row r="27" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="104"/>
+      <c r="B27" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="72"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="77"/>
+      <c r="F27" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="71"/>
       <c r="H27" s="45" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3218,14 +3236,14 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
     </row>
-    <row r="28" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+    <row r="28" spans="1:17" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="105"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="100"/>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
-      <c r="G28" s="78"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="66" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3245,16 +3263,16 @@
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
     </row>
-    <row r="29" spans="1:17" ht="12" customHeight="1">
-      <c r="A29" s="83" t="s">
+    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="20" t="s">
         <v>17</v>
       </c>
@@ -3289,14 +3307,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="146"/>
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="7" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3322,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="15">
         <f t="shared" ref="K30:L30" si="3">SUMPRODUCT((MOD(ROW(K$31:K$46),2)=0)*K$31:K$46)</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="L30" s="38">
         <f t="shared" si="3"/>
@@ -3312,7 +3330,7 @@
       </c>
       <c r="M30" s="38">
         <f>SUMPRODUCT((MOD(ROW(M$31:M$46),2)=0)*M$31:M$46)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="38">
         <f>SUMPRODUCT((MOD(ROW(N$31:N$46),2)=0)*N$31:N$46)</f>
@@ -3331,18 +3349,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="93">
         <v>1</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="135"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="85"/>
       <c r="H31" s="23" t="s">
         <v>17</v>
       </c>
@@ -3356,14 +3378,14 @@
       <c r="P31" s="58"/>
       <c r="Q31" s="58"/>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1">
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="94"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="136"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="24" t="s">
         <v>18</v>
       </c>
@@ -3377,20 +3399,22 @@
       <c r="P32" s="60"/>
       <c r="Q32" s="60"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1">
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="93"/>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="72"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="138"/>
+      <c r="F33" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="91"/>
       <c r="H33" s="8" t="s">
         <v>17</v>
       </c>
@@ -3413,14 +3437,14 @@
       <c r="P33" s="31"/>
       <c r="Q33" s="31"/>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1">
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="94"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
-      <c r="G34" s="96"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="65" t="s">
         <v>18</v>
       </c>
@@ -3443,20 +3467,22 @@
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1">
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="93"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="138"/>
+      <c r="F35" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="91"/>
       <c r="H35" s="8" t="s">
         <v>17</v>
       </c>
@@ -3479,14 +3505,14 @@
       <c r="P35" s="31"/>
       <c r="Q35" s="31"/>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1">
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="94"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
-      <c r="G36" s="96"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="65" t="s">
         <v>18</v>
       </c>
@@ -3509,20 +3535,22 @@
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1">
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="93"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="72"/>
+      <c r="D37" s="97"/>
       <c r="E37" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="138"/>
+      <c r="F37" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="91"/>
       <c r="H37" s="8" t="s">
         <v>17</v>
       </c>
@@ -3542,14 +3570,14 @@
       <c r="P37" s="31"/>
       <c r="Q37" s="31"/>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1">
+    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="94"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="100"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
-      <c r="G38" s="96"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="65" t="s">
         <v>18</v>
       </c>
@@ -3572,20 +3600,22 @@
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="93"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="89"/>
-      <c r="G39" s="138"/>
+      <c r="F39" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="91"/>
       <c r="H39" s="8" t="s">
         <v>17</v>
       </c>
@@ -3608,42 +3638,50 @@
       <c r="P39" s="31"/>
       <c r="Q39" s="31"/>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1">
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="94"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="90"/>
       <c r="F40" s="90"/>
-      <c r="G40" s="96"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
+      <c r="I40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="65">
+        <v>2</v>
+      </c>
       <c r="K40" s="10">
         <f>SUM(L40:Q40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="37"/>
-      <c r="M40" s="32"/>
+      <c r="M40" s="32">
+        <v>2</v>
+      </c>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
     </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="93">
         <v>2</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="135"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="85"/>
       <c r="H41" s="23" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3658,14 +3696,14 @@
       <c r="P41" s="58"/>
       <c r="Q41" s="58"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1">
+    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="94"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="136"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="24" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -3680,20 +3718,22 @@
       <c r="P42" s="60"/>
       <c r="Q42" s="60"/>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1">
+    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="93"/>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="89"/>
-      <c r="G43" s="138"/>
+      <c r="F43" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="91"/>
       <c r="H43" s="8" t="s">
         <v>17</v>
       </c>
@@ -3716,44 +3756,52 @@
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1">
+    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="94"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="90"/>
       <c r="F44" s="90"/>
-      <c r="G44" s="96"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="I44" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="65">
+        <v>2</v>
+      </c>
       <c r="K44" s="10">
         <f>SUM(L44:Q44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="37"/>
-      <c r="M44" s="32"/>
+      <c r="M44" s="32">
+        <v>2</v>
+      </c>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="32"/>
     </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1">
+    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="93"/>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="138"/>
+      <c r="F45" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="91"/>
       <c r="H45" s="8" t="s">
         <v>17</v>
       </c>
@@ -3776,40 +3824,46 @@
       <c r="P45" s="31"/>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1">
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="94"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="90"/>
       <c r="F46" s="90"/>
-      <c r="G46" s="96"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
+      <c r="I46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="65">
+        <v>1</v>
+      </c>
       <c r="K46" s="10">
         <f>SUM(L46:Q46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="37"/>
-      <c r="M46" s="32"/>
+      <c r="M46" s="32">
+        <v>1</v>
+      </c>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="145"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="20" t="s">
         <v>17</v>
       </c>
@@ -3844,14 +3898,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1">
-      <c r="A48" s="86"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="146"/>
+    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="111"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="74"/>
       <c r="H48" s="7" t="s">
         <v>18</v>
       </c>
@@ -3886,18 +3940,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="12" customHeight="1">
+    <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="93">
         <v>1</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="135"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="85"/>
       <c r="H49" s="23" t="s">
         <v>17</v>
       </c>
@@ -3911,14 +3967,14 @@
       <c r="P49" s="58"/>
       <c r="Q49" s="58"/>
     </row>
-    <row r="50" spans="1:18" ht="12" customHeight="1">
+    <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="94"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="136"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="86"/>
       <c r="H50" s="24" t="s">
         <v>18</v>
       </c>
@@ -3932,20 +3988,22 @@
       <c r="P50" s="60"/>
       <c r="Q50" s="60"/>
     </row>
-    <row r="51" spans="1:18" ht="12" customHeight="1">
+    <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="93"/>
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="72"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="138"/>
+      <c r="F51" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="91"/>
       <c r="H51" s="8" t="s">
         <v>17</v>
       </c>
@@ -3968,14 +4026,14 @@
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
     </row>
-    <row r="52" spans="1:18" ht="12" customHeight="1">
+    <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="94"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="90"/>
       <c r="F52" s="90"/>
-      <c r="G52" s="96"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="65" t="s">
         <v>18</v>
       </c>
@@ -3992,20 +4050,20 @@
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
     </row>
-    <row r="53" spans="1:18" ht="12" customHeight="1">
+    <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="93"/>
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="72"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="89" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="89"/>
-      <c r="G53" s="138"/>
+      <c r="G53" s="91"/>
       <c r="H53" s="8" t="s">
         <v>17</v>
       </c>
@@ -4028,14 +4086,14 @@
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
     </row>
-    <row r="54" spans="1:18" ht="12" customHeight="1">
+    <row r="54" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="94"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="74"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="90"/>
       <c r="F54" s="90"/>
-      <c r="G54" s="96"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="65" t="s">
         <v>18</v>
       </c>
@@ -4052,18 +4110,18 @@
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
     </row>
-    <row r="55" spans="1:18" ht="12" customHeight="1">
+    <row r="55" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="93">
         <v>2</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="135"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="23" t="s">
         <v>17</v>
       </c>
@@ -4077,14 +4135,14 @@
       <c r="P55" s="58"/>
       <c r="Q55" s="58"/>
     </row>
-    <row r="56" spans="1:18" ht="12" customHeight="1">
+    <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="94"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="136"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="24" t="s">
         <v>18</v>
       </c>
@@ -4098,20 +4156,20 @@
       <c r="P56" s="60"/>
       <c r="Q56" s="60"/>
     </row>
-    <row r="57" spans="1:18" ht="12" customHeight="1">
+    <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="93"/>
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="89" t="s">
         <v>39</v>
       </c>
       <c r="F57" s="89"/>
-      <c r="G57" s="138"/>
+      <c r="G57" s="91"/>
       <c r="H57" s="8" t="s">
         <v>17</v>
       </c>
@@ -4134,21 +4192,21 @@
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
     </row>
-    <row r="58" spans="1:18" ht="12" customHeight="1">
+    <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="94"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="90"/>
       <c r="F58" s="90"/>
-      <c r="G58" s="96"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="65" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="65"/>
       <c r="J58" s="65"/>
       <c r="K58" s="10">
-        <f t="shared" ref="K57:K62" si="4">SUM(L58:Q58)</f>
+        <f t="shared" ref="K58:K62" si="4">SUM(L58:Q58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="37"/>
@@ -4158,20 +4216,20 @@
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
     </row>
-    <row r="59" spans="1:18" ht="12" customHeight="1">
+    <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="93"/>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="72"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="89" t="s">
         <v>55</v>
       </c>
       <c r="F59" s="89"/>
-      <c r="G59" s="138"/>
+      <c r="G59" s="91"/>
       <c r="H59" s="8" t="s">
         <v>17</v>
       </c>
@@ -4194,14 +4252,14 @@
       <c r="P59" s="31"/>
       <c r="Q59" s="31"/>
     </row>
-    <row r="60" spans="1:18" ht="12" customHeight="1">
+    <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="94"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="100"/>
       <c r="E60" s="90"/>
       <c r="F60" s="90"/>
-      <c r="G60" s="96"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="65" t="s">
         <v>18</v>
       </c>
@@ -4218,20 +4276,20 @@
       <c r="P60" s="32"/>
       <c r="Q60" s="32"/>
     </row>
-    <row r="61" spans="1:18" ht="12" customHeight="1">
+    <row r="61" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="93"/>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="72"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="89" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="89"/>
-      <c r="G61" s="138"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="8" t="s">
         <v>17</v>
       </c>
@@ -4254,14 +4312,14 @@
       <c r="P61" s="31"/>
       <c r="Q61" s="31"/>
     </row>
-    <row r="62" spans="1:18" ht="12" customHeight="1">
+    <row r="62" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="94"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
-      <c r="G62" s="96"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="65" t="s">
         <v>18</v>
       </c>
@@ -4278,20 +4336,20 @@
       <c r="P62" s="40"/>
       <c r="Q62" s="40"/>
     </row>
-    <row r="63" spans="1:18">
-      <c r="A63" s="83" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="137"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="77"/>
       <c r="H63" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="145"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="20" t="s">
         <v>17</v>
       </c>
@@ -4325,18 +4383,18 @@
       </c>
       <c r="R63" s="44"/>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="86"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="130"/>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="111"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="78"/>
       <c r="H64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="146"/>
+      <c r="I64" s="74"/>
       <c r="J64" s="7" t="s">
         <v>18</v>
       </c>
@@ -4370,18 +4428,18 @@
       </c>
       <c r="R64" s="44"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="93">
         <v>1</v>
       </c>
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="143"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="52" t="s">
         <v>17</v>
       </c>
@@ -4398,14 +4456,14 @@
       <c r="P65" s="58"/>
       <c r="Q65" s="58"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="94"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="144"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="70"/>
       <c r="H66" s="67" t="s">
         <v>18</v>
       </c>
@@ -4422,20 +4480,20 @@
       <c r="P66" s="62"/>
       <c r="Q66" s="62"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="93"/>
-      <c r="B67" s="95" t="s">
+      <c r="B67" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="71" t="s">
+      <c r="C67" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="72"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="75"/>
-      <c r="G67" s="77"/>
+      <c r="G67" s="71"/>
       <c r="H67" s="45" t="s">
         <v>17</v>
       </c>
@@ -4458,14 +4516,14 @@
       <c r="P67" s="47"/>
       <c r="Q67" s="47"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="94"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="74"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="76"/>
       <c r="F68" s="76"/>
-      <c r="G68" s="70"/>
+      <c r="G68" s="72"/>
       <c r="H68" s="66" t="s">
         <v>18</v>
       </c>
@@ -4482,20 +4540,20 @@
       <c r="P68" s="51"/>
       <c r="Q68" s="51"/>
     </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="79"/>
-      <c r="B69" s="69" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" s="104"/>
+      <c r="B69" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="72"/>
+      <c r="D69" s="97"/>
       <c r="E69" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F69" s="75"/>
-      <c r="G69" s="77"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="45" t="s">
         <v>17</v>
       </c>
@@ -4516,14 +4574,14 @@
       <c r="P69" s="47"/>
       <c r="Q69" s="47"/>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="80"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="105"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="100"/>
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
-      <c r="G70" s="70"/>
+      <c r="G70" s="72"/>
       <c r="H70" s="66" t="s">
         <v>18</v>
       </c>
@@ -4540,20 +4598,20 @@
       <c r="P70" s="51"/>
       <c r="Q70" s="51"/>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="79"/>
-      <c r="B71" s="69" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="104"/>
+      <c r="B71" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="71" t="s">
+      <c r="C71" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="72"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="75"/>
-      <c r="G71" s="77"/>
+      <c r="G71" s="71"/>
       <c r="H71" s="45" t="s">
         <v>17</v>
       </c>
@@ -4574,14 +4632,14 @@
       <c r="P71" s="47"/>
       <c r="Q71" s="47"/>
     </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="80"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="74"/>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="105"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="100"/>
       <c r="E72" s="76"/>
       <c r="F72" s="76"/>
-      <c r="G72" s="70"/>
+      <c r="G72" s="72"/>
       <c r="H72" s="66" t="s">
         <v>18</v>
       </c>
@@ -4598,20 +4656,20 @@
       <c r="P72" s="51"/>
       <c r="Q72" s="51"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="93"/>
-      <c r="B73" s="95" t="s">
+      <c r="B73" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="72"/>
+      <c r="D73" s="97"/>
       <c r="E73" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="75"/>
-      <c r="G73" s="77"/>
+      <c r="G73" s="71"/>
       <c r="H73" s="45" t="s">
         <v>17</v>
       </c>
@@ -4632,14 +4690,14 @@
       <c r="P73" s="47"/>
       <c r="Q73" s="47"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="94"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="100"/>
       <c r="E74" s="76"/>
       <c r="F74" s="76"/>
-      <c r="G74" s="70"/>
+      <c r="G74" s="72"/>
       <c r="H74" s="66" t="s">
         <v>18</v>
       </c>
@@ -4656,18 +4714,18 @@
       <c r="P74" s="49"/>
       <c r="Q74" s="49"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="93">
         <v>2</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="147"/>
-      <c r="G75" s="143"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="69"/>
       <c r="H75" s="52" t="s">
         <v>17</v>
       </c>
@@ -4684,14 +4742,14 @@
       <c r="P75" s="58"/>
       <c r="Q75" s="58"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="94"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="144"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="70"/>
       <c r="H76" s="67" t="s">
         <v>18</v>
       </c>
@@ -4708,20 +4766,20 @@
       <c r="P76" s="60"/>
       <c r="Q76" s="60"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="93"/>
-      <c r="B77" s="95" t="s">
+      <c r="B77" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="72"/>
+      <c r="D77" s="97"/>
       <c r="E77" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F77" s="75"/>
-      <c r="G77" s="77"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="45" t="s">
         <v>17</v>
       </c>
@@ -4744,14 +4802,14 @@
       <c r="P77" s="47"/>
       <c r="Q77" s="47"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="94"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="100"/>
       <c r="E78" s="76"/>
       <c r="F78" s="76"/>
-      <c r="G78" s="70"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="66" t="s">
         <v>18</v>
       </c>
@@ -4768,20 +4826,20 @@
       <c r="P78" s="49"/>
       <c r="Q78" s="49"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="93"/>
-      <c r="B79" s="95" t="s">
+      <c r="B79" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="72"/>
+      <c r="D79" s="97"/>
       <c r="E79" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F79" s="75"/>
-      <c r="G79" s="77"/>
+      <c r="G79" s="71"/>
       <c r="H79" s="45" t="s">
         <v>17</v>
       </c>
@@ -4802,14 +4860,14 @@
       <c r="P79" s="47"/>
       <c r="Q79" s="47"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="94"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="100"/>
       <c r="E80" s="76"/>
       <c r="F80" s="76"/>
-      <c r="G80" s="70"/>
+      <c r="G80" s="72"/>
       <c r="H80" s="66" t="s">
         <v>18</v>
       </c>
@@ -4826,20 +4884,20 @@
       <c r="P80" s="49"/>
       <c r="Q80" s="49"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="93"/>
-      <c r="B81" s="95" t="s">
+      <c r="B81" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="72"/>
+      <c r="D81" s="97"/>
       <c r="E81" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F81" s="75"/>
-      <c r="G81" s="77"/>
+      <c r="G81" s="71"/>
       <c r="H81" s="45" t="s">
         <v>17</v>
       </c>
@@ -4860,14 +4918,14 @@
       <c r="P81" s="47"/>
       <c r="Q81" s="47"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="94"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
-      <c r="G82" s="70"/>
+      <c r="G82" s="72"/>
       <c r="H82" s="66" t="s">
         <v>18</v>
       </c>
@@ -4884,16 +4942,16 @@
       <c r="P82" s="49"/>
       <c r="Q82" s="49"/>
     </row>
-    <row r="83" spans="1:17" s="44" customFormat="1">
-      <c r="A83" s="83" t="s">
+    <row r="83" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="145"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="20" t="s">
         <v>17</v>
       </c>
@@ -4928,14 +4986,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="44" customFormat="1">
-      <c r="A84" s="86"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="130"/>
-      <c r="F84" s="130"/>
-      <c r="G84" s="146"/>
+    <row r="84" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="111"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="74"/>
       <c r="H84" s="7" t="s">
         <v>18</v>
       </c>
@@ -4970,18 +5028,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="79">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85" s="104">
         <v>1</v>
       </c>
-      <c r="B85" s="71" t="s">
+      <c r="B85" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="147"/>
-      <c r="G85" s="143"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="52" t="s">
         <v>17</v>
       </c>
@@ -4998,14 +5056,14 @@
       <c r="P85" s="62"/>
       <c r="Q85" s="62"/>
     </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="80"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="148"/>
-      <c r="F86" s="148"/>
-      <c r="G86" s="144"/>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86" s="105"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="67" t="s">
         <v>18</v>
       </c>
@@ -5022,20 +5080,20 @@
       <c r="P86" s="58"/>
       <c r="Q86" s="58"/>
     </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="79"/>
-      <c r="B87" s="69" t="s">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87" s="104"/>
+      <c r="B87" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="71" t="s">
+      <c r="C87" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="72"/>
+      <c r="D87" s="97"/>
       <c r="E87" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="75"/>
-      <c r="G87" s="77"/>
+      <c r="G87" s="71"/>
       <c r="H87" s="45" t="s">
         <v>17</v>
       </c>
@@ -5058,14 +5116,14 @@
       </c>
       <c r="Q87" s="47"/>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="80"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="74"/>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88" s="105"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="100"/>
       <c r="E88" s="76"/>
       <c r="F88" s="76"/>
-      <c r="G88" s="70"/>
+      <c r="G88" s="72"/>
       <c r="H88" s="66" t="s">
         <v>18</v>
       </c>
@@ -5082,20 +5140,20 @@
       <c r="P88" s="51"/>
       <c r="Q88" s="51"/>
     </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="79"/>
-      <c r="B89" s="69" t="s">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89" s="104"/>
+      <c r="B89" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="72"/>
+      <c r="D89" s="97"/>
       <c r="E89" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F89" s="75"/>
-      <c r="G89" s="77"/>
+      <c r="G89" s="71"/>
       <c r="H89" s="45" t="s">
         <v>17</v>
       </c>
@@ -5120,14 +5178,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="80"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="73"/>
-      <c r="D90" s="74"/>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90" s="105"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="100"/>
       <c r="E90" s="76"/>
       <c r="F90" s="76"/>
-      <c r="G90" s="70"/>
+      <c r="G90" s="72"/>
       <c r="H90" s="66" t="s">
         <v>18</v>
       </c>
@@ -5144,16 +5202,16 @@
       <c r="P90" s="51"/>
       <c r="Q90" s="51"/>
     </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="83" t="s">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="137"/>
-      <c r="G91" s="145"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="73"/>
       <c r="H91" s="20" t="s">
         <v>17</v>
       </c>
@@ -5188,14 +5246,14 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="86"/>
-      <c r="B92" s="87"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="130"/>
-      <c r="G92" s="146"/>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A92" s="111"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="74"/>
       <c r="H92" s="7" t="s">
         <v>18</v>
       </c>
@@ -5230,18 +5288,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="79">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A93" s="104">
         <v>1</v>
       </c>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="81"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="147"/>
-      <c r="F93" s="147"/>
-      <c r="G93" s="143"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="69"/>
       <c r="H93" s="52" t="s">
         <v>17</v>
       </c>
@@ -5258,14 +5316,14 @@
       <c r="P93" s="58"/>
       <c r="Q93" s="58"/>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="80"/>
-      <c r="B94" s="73"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="148"/>
-      <c r="F94" s="148"/>
-      <c r="G94" s="144"/>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A94" s="105"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="70"/>
       <c r="H94" s="67" t="s">
         <v>18</v>
       </c>
@@ -5282,20 +5340,20 @@
       <c r="P94" s="62"/>
       <c r="Q94" s="62"/>
     </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="79"/>
-      <c r="B95" s="69" t="s">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A95" s="104"/>
+      <c r="B95" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="71" t="s">
+      <c r="C95" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="72"/>
+      <c r="D95" s="97"/>
       <c r="E95" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F95" s="75"/>
-      <c r="G95" s="77"/>
+      <c r="G95" s="71"/>
       <c r="H95" s="45" t="s">
         <v>17</v>
       </c>
@@ -5316,14 +5374,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="80"/>
-      <c r="B96" s="70"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="74"/>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A96" s="105"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="100"/>
       <c r="E96" s="76"/>
       <c r="F96" s="76"/>
-      <c r="G96" s="70"/>
+      <c r="G96" s="72"/>
       <c r="H96" s="66" t="s">
         <v>18</v>
       </c>
@@ -5340,20 +5398,20 @@
       <c r="P96" s="49"/>
       <c r="Q96" s="49"/>
     </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="79"/>
-      <c r="B97" s="69" t="s">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97" s="104"/>
+      <c r="B97" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="72"/>
+      <c r="D97" s="97"/>
       <c r="E97" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F97" s="75"/>
-      <c r="G97" s="77"/>
+      <c r="G97" s="71"/>
       <c r="H97" s="45" t="s">
         <v>17</v>
       </c>
@@ -5374,14 +5432,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="80"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="74"/>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98" s="105"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="100"/>
       <c r="E98" s="76"/>
       <c r="F98" s="76"/>
-      <c r="G98" s="70"/>
+      <c r="G98" s="72"/>
       <c r="H98" s="66" t="s">
         <v>18</v>
       </c>
@@ -5398,18 +5456,18 @@
       <c r="P98" s="49"/>
       <c r="Q98" s="49"/>
     </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="79">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99" s="104">
         <v>2</v>
       </c>
-      <c r="B99" s="71" t="s">
+      <c r="B99" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="81"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="147"/>
-      <c r="F99" s="147"/>
-      <c r="G99" s="143"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="52" t="s">
         <v>17</v>
       </c>
@@ -5426,14 +5484,14 @@
       <c r="P99" s="63"/>
       <c r="Q99" s="63"/>
     </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="80"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="148"/>
-      <c r="G100" s="144"/>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100" s="105"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="67" t="s">
         <v>18</v>
       </c>
@@ -5450,20 +5508,20 @@
       <c r="P100" s="63"/>
       <c r="Q100" s="63"/>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="79"/>
-      <c r="B101" s="69" t="s">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101" s="104"/>
+      <c r="B101" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="C101" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="72"/>
+      <c r="D101" s="97"/>
       <c r="E101" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F101" s="75"/>
-      <c r="G101" s="77"/>
+      <c r="G101" s="71"/>
       <c r="H101" s="45" t="s">
         <v>17</v>
       </c>
@@ -5486,14 +5544,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="80"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="74"/>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102" s="105"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="100"/>
       <c r="E102" s="76"/>
       <c r="F102" s="76"/>
-      <c r="G102" s="70"/>
+      <c r="G102" s="72"/>
       <c r="H102" s="66" t="s">
         <v>18</v>
       </c>
@@ -5510,20 +5568,20 @@
       <c r="P102" s="51"/>
       <c r="Q102" s="51"/>
     </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="79"/>
-      <c r="B103" s="69" t="s">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103" s="104"/>
+      <c r="B103" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C103" s="71" t="s">
+      <c r="C103" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="72"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F103" s="75"/>
-      <c r="G103" s="77"/>
+      <c r="G103" s="71"/>
       <c r="H103" s="45" t="s">
         <v>17</v>
       </c>
@@ -5544,14 +5602,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
-      <c r="A104" s="80"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="74"/>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104" s="105"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="100"/>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
-      <c r="G104" s="70"/>
+      <c r="G104" s="72"/>
       <c r="H104" s="66" t="s">
         <v>18</v>
       </c>
@@ -5568,16 +5626,16 @@
       <c r="P104" s="51"/>
       <c r="Q104" s="51"/>
     </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="83" t="s">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="84"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="137"/>
-      <c r="G105" s="145"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="73"/>
       <c r="H105" s="20" t="s">
         <v>17</v>
       </c>
@@ -5612,14 +5670,14 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="86"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="130"/>
-      <c r="G106" s="146"/>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106" s="111"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="113"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="74"/>
       <c r="H106" s="7" t="s">
         <v>18</v>
       </c>
@@ -5654,18 +5712,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="79">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107" s="104">
         <v>1</v>
       </c>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="81"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="143"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="69"/>
       <c r="H107" s="52" t="s">
         <v>17</v>
       </c>
@@ -5682,14 +5740,14 @@
       <c r="P107" s="62"/>
       <c r="Q107" s="62"/>
     </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="80"/>
-      <c r="B108" s="73"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="148"/>
-      <c r="F108" s="148"/>
-      <c r="G108" s="144"/>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108" s="105"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="70"/>
       <c r="H108" s="67" t="s">
         <v>18</v>
       </c>
@@ -5706,20 +5764,20 @@
       <c r="P108" s="58"/>
       <c r="Q108" s="58"/>
     </row>
-    <row r="109" spans="1:17">
-      <c r="A109" s="79"/>
-      <c r="B109" s="69" t="s">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109" s="104"/>
+      <c r="B109" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="71" t="s">
+      <c r="C109" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D109" s="72"/>
+      <c r="D109" s="97"/>
       <c r="E109" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="75"/>
-      <c r="G109" s="77"/>
+      <c r="G109" s="71"/>
       <c r="H109" s="45" t="s">
         <v>17</v>
       </c>
@@ -5742,14 +5800,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
-      <c r="A110" s="80"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="74"/>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110" s="105"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="100"/>
       <c r="E110" s="76"/>
       <c r="F110" s="76"/>
-      <c r="G110" s="70"/>
+      <c r="G110" s="72"/>
       <c r="H110" s="66" t="s">
         <v>18</v>
       </c>
@@ -5766,20 +5824,20 @@
       <c r="P110" s="51"/>
       <c r="Q110" s="51"/>
     </row>
-    <row r="111" spans="1:17">
-      <c r="A111" s="79"/>
-      <c r="B111" s="69" t="s">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A111" s="104"/>
+      <c r="B111" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C111" s="71" t="s">
+      <c r="C111" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D111" s="72"/>
+      <c r="D111" s="97"/>
       <c r="E111" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="75"/>
-      <c r="G111" s="77"/>
+      <c r="G111" s="71"/>
       <c r="H111" s="45" t="s">
         <v>17</v>
       </c>
@@ -5802,14 +5860,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
-      <c r="A112" s="80"/>
-      <c r="B112" s="70"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="74"/>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112" s="105"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="100"/>
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
-      <c r="G112" s="70"/>
+      <c r="G112" s="72"/>
       <c r="H112" s="66" t="s">
         <v>18</v>
       </c>
@@ -5826,18 +5884,18 @@
       <c r="P112" s="51"/>
       <c r="Q112" s="51"/>
     </row>
-    <row r="113" spans="1:17">
-      <c r="A113" s="79">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113" s="104">
         <v>2</v>
       </c>
-      <c r="B113" s="71" t="s">
+      <c r="B113" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="81"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="147"/>
-      <c r="F113" s="147"/>
-      <c r="G113" s="143"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="69"/>
       <c r="H113" s="52" t="s">
         <v>17</v>
       </c>
@@ -5854,14 +5912,14 @@
       <c r="P113" s="58"/>
       <c r="Q113" s="58"/>
     </row>
-    <row r="114" spans="1:17">
-      <c r="A114" s="80"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="148"/>
-      <c r="F114" s="148"/>
-      <c r="G114" s="144"/>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114" s="105"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="100"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="70"/>
       <c r="H114" s="67" t="s">
         <v>18</v>
       </c>
@@ -5878,20 +5936,20 @@
       <c r="P114" s="62"/>
       <c r="Q114" s="62"/>
     </row>
-    <row r="115" spans="1:17">
-      <c r="A115" s="79"/>
-      <c r="B115" s="69" t="s">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A115" s="104"/>
+      <c r="B115" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="71" t="s">
+      <c r="C115" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="72"/>
+      <c r="D115" s="97"/>
       <c r="E115" s="75" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="75"/>
-      <c r="G115" s="77"/>
+      <c r="G115" s="71"/>
       <c r="H115" s="45" t="s">
         <v>17</v>
       </c>
@@ -5914,14 +5972,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="80"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="74"/>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116" s="105"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="100"/>
       <c r="E116" s="76"/>
       <c r="F116" s="76"/>
-      <c r="G116" s="70"/>
+      <c r="G116" s="72"/>
       <c r="H116" s="66" t="s">
         <v>18</v>
       </c>
@@ -5938,20 +5996,20 @@
       <c r="P116" s="51"/>
       <c r="Q116" s="51"/>
     </row>
-    <row r="117" spans="1:17">
-      <c r="A117" s="79"/>
-      <c r="B117" s="69" t="s">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A117" s="104"/>
+      <c r="B117" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="71" t="s">
+      <c r="C117" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="72"/>
+      <c r="D117" s="97"/>
       <c r="E117" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F117" s="75"/>
-      <c r="G117" s="77"/>
+      <c r="G117" s="71"/>
       <c r="H117" s="45" t="s">
         <v>17</v>
       </c>
@@ -5972,14 +6030,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
-      <c r="A118" s="80"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="73"/>
-      <c r="D118" s="74"/>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118" s="105"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="100"/>
       <c r="E118" s="76"/>
       <c r="F118" s="76"/>
-      <c r="G118" s="70"/>
+      <c r="G118" s="72"/>
       <c r="H118" s="66" t="s">
         <v>18</v>
       </c>
@@ -6003,6 +6061,313 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="331">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:D114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="A91:D92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:D56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="B41:D42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:D76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
     <mergeCell ref="G113:G114"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="G117:G118"/>
@@ -6027,313 +6392,6 @@
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:D76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="B41:D42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="A91:D92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:D56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:D114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:Q16 L31:Q46 L49:Q62 L85:Q90 L107:Q118 L65:Q74 L77:Q82 L93:Q104 L27:Q27 N28:Q28 M29 L28">
@@ -6432,12 +6490,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6621,6 +6673,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
   <ds:schemaRefs>
@@ -6630,15 +6688,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B1BEC0-229F-4105-B80D-925691E8660B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6654,4 +6703,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_management/06_WBSガントチャート最終版.xlsx
+++ b/00_management/06_WBSガントチャート最終版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853637D9-4BD9-457E-85B8-A9AAFEA1A206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7C27D-BDE2-440E-935A-ADE9CA7C380A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="90" windowWidth="19185" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1020" windowWidth="19185" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復１" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="72">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -2284,10 +2284,10 @@
   <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29:E30"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2490,7 +2490,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="43">
         <f>SUM(K8,K30,K48,K64,K84,K92,K106,)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="L6" s="28">
         <f>SUM(L8,L30,L48)</f>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="M6" s="29">
         <f>SUM(M8,M30,M48,M64,M84,M92,M106,)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N6" s="29">
         <f t="shared" ref="N6:Q6" si="0">SUM(N8,N30,N48,N64,N84,N92,N106,)</f>
@@ -3677,14 +3677,16 @@
       </c>
       <c r="C41" s="96"/>
       <c r="D41" s="97"/>
-      <c r="E41" s="87"/>
+      <c r="E41" s="87" t="s">
+        <v>39</v>
+      </c>
       <c r="F41" s="87" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="85"/>
       <c r="H41" s="23" t="str">
         <f>IF(E41="","","予定")</f>
-        <v/>
+        <v>予定</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
@@ -3706,7 +3708,7 @@
       <c r="G42" s="86"/>
       <c r="H42" s="24" t="str">
         <f>IF(E41="","","実績")</f>
-        <v/>
+        <v>実績</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -3913,7 +3915,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="54" cm="1">
         <f t="array" ref="K48">SUMPRODUCT((MOD(ROW(K$49:K$62),2)=0)*K$49:K$62)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" s="54" cm="1">
         <f t="array" ref="L48">SUMPRODUCT((MOD(ROW(L$49:L$62),2)=0)*L$49:L$62)</f>
@@ -3921,7 +3923,7 @@
       </c>
       <c r="M48" s="54" cm="1">
         <f t="array" ref="M48">SUMPRODUCT((MOD(ROW(M$49:M$62),2)=0)*M$49:M$62)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="54" cm="1">
         <f t="array" ref="N48">SUMPRODUCT((MOD(ROW(N$49:N$62),2)=0)*N$49:N$62)</f>
@@ -3949,7 +3951,9 @@
       </c>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="87"/>
+      <c r="E49" s="87" t="s">
+        <v>21</v>
+      </c>
       <c r="F49" s="87" t="s">
         <v>22</v>
       </c>
@@ -4041,10 +4045,12 @@
       <c r="J52" s="65"/>
       <c r="K52" s="10">
         <f>SUM(L52:Q52)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="37"/>
-      <c r="M52" s="32"/>
+      <c r="M52" s="32">
+        <v>2</v>
+      </c>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
